--- a/docs/mcode-r4/obf-MedicationAction.xlsx
+++ b/docs/mcode-r4/obf-MedicationAction.xlsx
@@ -320,7 +320,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Status-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Status-extension}
 </t>
   </si>
   <si>
@@ -330,7 +330,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Identifier-extension}
 </t>
   </si>
   <si>
@@ -340,7 +340,7 @@
     <t>subjectofrecord</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-SubjectOfRecord-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-SubjectOfRecord-extension}
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>carecontext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-CareContext-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-CareContext-extension}
 </t>
   </si>
   <si>
@@ -361,7 +361,7 @@
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -371,7 +371,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -382,7 +382,7 @@
     <t>reasonreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-ReasonReference-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-ReasonReference-extension}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>basedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-BasedOn-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
@@ -402,7 +402,7 @@
     <t>occurrencetimeorperiod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-OccurrenceTimeOrPeriod-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-OccurrenceTimeOrPeriod-extension}
 </t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>participation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Participation-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Participation-extension}
 </t>
   </si>
   <si>
@@ -422,7 +422,7 @@
     <t>medicationcodeorreference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-MedicationCodeOrReference-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationCodeOrReference-extension}
 </t>
   </si>
   <si>
@@ -432,7 +432,7 @@
     <t>dosage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Dosage-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Dosage-extension}
 </t>
   </si>
   <si>
